--- a/src/main/resources/cases/cases_v3.xlsx
+++ b/src/main/resources/cases/cases_v3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/mooc/14.柠檬班 - Java自动化测试工程师/autoapi/src/main/resources/cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jingnan/code/01-Github/autoapi/src/main/resources/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D47E9CC-9750-774C-975B-7674828E4F10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BC15578-9065-A24E-8C73-DAC876D54913}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="960" yWindow="2120" windowWidth="26540" windowHeight="13180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -120,91 +120,39 @@
   </si>
   <si>
     <t>CaseId(用例编号)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>register</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>list</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ApiName(接口名称)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/register</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/login</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/recharge</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/withdraw</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/list</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/member/bidLoan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/loan/add</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/loan/audit</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/loan/getLoanList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/loan/generateRepayments</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/invest/getInvestsByMemberId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/invest/getInvestsByLoanId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://127.0.0.1:8888/api/financelog/getFinanceLogList</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>{"phone":"1826804","password":"123456"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"phone":"18268046852","password":"12345"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"phone":"18268046852","password":"123456"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"phone":"18268046853","password":"123456"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>{"phone":"18268046854","password":"123456"}</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>Desc(用例描述)</t>
@@ -223,18 +171,57 @@
   </si>
   <si>
     <t>登陆失败</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>登陆成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/register</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/login</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/recharge</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/withdraw</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/list</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/member/bidLoan</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/loan/add</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/loan/audit</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/loan/getLoanList</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/loan/generateRepayments</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/invest/getInvestsByMemberId</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/invest/getInvestsByLoanId</t>
+  </si>
+  <si>
+    <t>http://127.0.0.1:8848/api/financelog/getFinanceLogList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,15 +232,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -287,6 +265,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -305,11 +298,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -339,17 +329,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -688,7 +679,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -709,7 +700,7 @@
       <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
@@ -723,8 +714,8 @@
       <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>25</v>
+      <c r="D2" s="11" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -737,8 +728,8 @@
       <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>26</v>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -751,8 +742,8 @@
       <c r="C4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>27</v>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -765,8 +756,8 @@
       <c r="C5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>28</v>
+      <c r="D5" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -779,8 +770,8 @@
       <c r="C6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>29</v>
+      <c r="D6" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -793,8 +784,8 @@
       <c r="C7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>30</v>
+      <c r="D7" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -807,8 +798,8 @@
       <c r="C8" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
+      <c r="D8" s="11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -821,8 +812,8 @@
       <c r="C9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="9" t="s">
-        <v>32</v>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -835,8 +826,8 @@
       <c r="C10" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="9" t="s">
-        <v>33</v>
+      <c r="D10" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -849,8 +840,8 @@
       <c r="C11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>34</v>
+      <c r="D11" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -863,8 +854,8 @@
       <c r="C12" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>35</v>
+      <c r="D12" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -877,8 +868,8 @@
       <c r="C13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>36</v>
+      <c r="D13" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -891,27 +882,12 @@
       <c r="C14" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>37</v>
+      <c r="D14" s="11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D2" r:id="rId2" xr:uid="{543319BD-E8F7-F143-909B-3A67ADC55C91}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{67032B04-2773-7247-BF76-FF935A88D4F7}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{9331AFA2-C448-5645-A86B-DCCCC280E492}"/>
-    <hyperlink ref="D6" r:id="rId5" xr:uid="{E7F2F8E0-BEBC-6044-B2BA-B1D2EBBC59B8}"/>
-    <hyperlink ref="D7" r:id="rId6" xr:uid="{8220EA18-681E-7B43-A59E-887F6B1D17F4}"/>
-    <hyperlink ref="D8" r:id="rId7" xr:uid="{9CEEDD24-D5EE-0A49-B066-4BCBBCC0FB57}"/>
-    <hyperlink ref="D9" r:id="rId8" xr:uid="{DC0AF8DF-0F41-9645-82C5-AF2D95D5EFFA}"/>
-    <hyperlink ref="D10" r:id="rId9" xr:uid="{1DF8134E-D51B-E949-8F15-44347D51B40F}"/>
-    <hyperlink ref="D11" r:id="rId10" xr:uid="{055E137C-2420-9D40-9B45-C4F0C42F4BD9}"/>
-    <hyperlink ref="D12" r:id="rId11" xr:uid="{E6BA44A6-5294-504C-9A37-8A03C77E74E1}"/>
-    <hyperlink ref="D13" r:id="rId12" xr:uid="{0FF79063-516C-B042-9B39-305A62F07730}"/>
-    <hyperlink ref="D14" r:id="rId13" xr:uid="{1DE4A768-8594-F64B-99BC-6A54890E254A}"/>
-  </hyperlinks>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
@@ -936,8 +912,8 @@
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>43</v>
+      <c r="B1" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -950,88 +926,88 @@
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>44</v>
+      <c r="B2" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>38</v>
+      <c r="D2" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>45</v>
+      <c r="B3" s="9" t="s">
+        <v>32</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>39</v>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>46</v>
+      <c r="B4" s="9" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>40</v>
+      <c r="D4" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>47</v>
+      <c r="B5" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>41</v>
+      <c r="D5" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>48</v>
+      <c r="B6" s="9" t="s">
+        <v>35</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>42</v>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>49</v>
+      <c r="B7" s="9" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>40</v>
+      <c r="D7" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
